--- a/Time complexity.xlsx
+++ b/Time complexity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Air Asia\Sessions\2023-B7-SoftwareEnginnering-Examples-Jan-2023\Algorithms &amp; DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E5E01D6-D116-486C-8584-4448AA583659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641F4A66-6ECE-483E-805C-49FA9F5C05B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{486A10F7-9864-4C1C-91FD-5DAACD643FBC}"/>
   </bookViews>
@@ -87,14 +87,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2265,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC6214A-F39B-47BB-B590-45CB091A21C5}">
   <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,10 +2275,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -2362,10 +2361,10 @@
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -2419,7 +2418,7 @@
       <c r="B23">
         <v>1000000</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>576245</v>
       </c>
     </row>
@@ -2427,19 +2426,19 @@
       <c r="B24">
         <v>10000000</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>100000000</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1000000000</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
